--- a/DATA/IsoData/TALLIsoData.xlsx
+++ b/DATA/IsoData/TALLIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">4ab5aafd-dbee-40d9-b383-2b99e1c013c1</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f10eda06-bd64-4625-b2ee-9bb421bcdea9</t>
   </si>
   <si>
     <t xml:space="preserve">TALL.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173219Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d40c0f70-ff39-401f-b6f2-881617836b30</t>
+    <t xml:space="preserve">20210112T151505Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e66dd66-6686-4609-b7ed-096f65e875ea</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190402.1253</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000048777</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174009Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7e88b8d1-9a3c-48bc-a472-8a80e2fcac7a</t>
+    <t xml:space="preserve">20210112T152642Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0843ee0d-bdbc-429c-8fd6-120e83d0bf02</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190417.1056</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000081938</t>
   </si>
   <si>
-    <t xml:space="preserve">69e70866-02e2-4776-9861-bf2eabafb330</t>
+    <t xml:space="preserve">389d3901-a8db-4adb-9ac3-b7af5305ecba</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190513.1100</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000082447</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173513Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0f2d73f-a274-46b6-914d-c2e780c2c289</t>
+    <t xml:space="preserve">20210112T152429Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f10e1bb4-e000-40c3-bbd7-d02d5572d599</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190611.0900</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000082994</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174548Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b72b588-02b4-481a-aef5-fcf7aa7a89e8</t>
+    <t xml:space="preserve">20210112T152709Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3aef4770-5308-44cd-bbd2-b11750216552</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190625.0800</t>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">A00000083263</t>
   </si>
   <si>
-    <t xml:space="preserve">84927e23-2ae4-42de-accb-c0b4b9dda27d</t>
+    <t xml:space="preserve">7429b35d-36a8-4917-ab95-0f439e9b3290</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190725.0930</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000083535</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174702Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c16baec1-8656-4c9f-a14c-ceaa7228f978</t>
+    <t xml:space="preserve">20210112T153640Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d5e7173b-90bd-486f-b522-23f4b416bdf8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190820.0900</t>
@@ -185,10 +191,10 @@
     <t xml:space="preserve">A00000083896</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174456Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f4e1ad1a-a99d-4661-9071-791d7774bcfb</t>
+    <t xml:space="preserve">20210112T152925Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1afd4b49-6795-4546-8ae7-56da0199f8ce</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20190917.0930</t>
@@ -200,10 +206,10 @@
     <t xml:space="preserve">A00000084105</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174245Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d1306968-274a-4af1-af67-a839a4bfa480</t>
+    <t xml:space="preserve">20210112T152704Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0146d3e-8913-4237-a878-8bbeb4ec9b5f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20191028.0900</t>
@@ -215,10 +221,10 @@
     <t xml:space="preserve">A00000145451</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174934Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70871ddb-c797-492c-8eec-7dcb078e0d69</t>
+    <t xml:space="preserve">20210112T152712Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdb1d7d2-1e6f-4a7e-997e-6d8fdf661a5e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20191112.1120</t>
@@ -230,10 +236,40 @@
     <t xml:space="preserve">A00000145518</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174828Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1fd259de-621c-4ed0-9038-5556d09ad4ac</t>
+    <t xml:space="preserve">20210112T153312Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132f009f-8e65-4d90-940f-55d81f0691e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.TALL.20200203.0930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.TALL.20200203.0930.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000146014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151110Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2726f02e-2f75-497b-bca8-be93f7bfa51a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.TALL.20200219.1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.TALL.20200219.1100.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000146048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147b86e1-0489-4167-b286-6b8d69fc42f5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TALL.20200309.1100</t>
@@ -245,7 +281,7 @@
     <t xml:space="preserve">A00000146116</t>
   </si>
   <si>
-    <t xml:space="preserve">20200706T134943Z</t>
+    <t xml:space="preserve">20210112T153015Z</t>
   </si>
 </sst>
 </file>
@@ -583,7 +619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -637,23 +673,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43483.78125</v>
@@ -674,35 +713,38 @@
         <v>0.164</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43537.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43502.7486111111</v>
@@ -723,35 +765,38 @@
         <v>0.198</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43557.7520833333</v>
@@ -772,35 +817,38 @@
         <v>0.043</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43572.6708333333</v>
@@ -821,35 +869,38 @@
         <v>0.104</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43598.6666666667</v>
@@ -870,35 +921,38 @@
         <v>0.14</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43627.5902777778</v>
@@ -919,35 +973,38 @@
         <v>0.107</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43641.6041666667</v>
@@ -968,35 +1025,38 @@
         <v>0.045</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43671.6041666667</v>
@@ -1017,35 +1077,38 @@
         <v>0.209</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43697.5833333333</v>
@@ -1066,35 +1129,38 @@
         <v>0.154</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43725.6041666667</v>
@@ -1115,35 +1181,38 @@
         <v>0.041</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43766.59375</v>
@@ -1164,66 +1233,176 @@
         <v>0.17</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>43880.7083333333</v>
+        <v>43781.7222222222</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>43899.6666666667</v>
+        <v>43864.6458333333</v>
       </c>
       <c r="I13" t="n">
-        <v>-5.662</v>
+        <v>-5.61</v>
       </c>
       <c r="J13" t="n">
-        <v>-29.881</v>
+        <v>-28.774</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="L13" t="n">
-        <v>0.116</v>
+        <v>0.084</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43990.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>43864.3958333333</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43880.7083333333</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-3.844</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-17.233</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>43880.7083333333</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43899.6666666667</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-5.662</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-29.881</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
